--- a/com.StromgerMe/target/test-classes/StrongerMe_required_data.xlsx
+++ b/com.StromgerMe/target/test-classes/StrongerMe_required_data.xlsx
@@ -3,21 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium\com.StromgerMe\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B72BB6-57B2-419C-A53A-EEDE7D863899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2672D528-A8A0-47CF-99EA-3C62A26080B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3512DD3E-64C5-479B-B375-C12BE095FA17}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="19464" windowHeight="13224" activeTab="2" xr2:uid="{3512DD3E-64C5-479B-B375-C12BE095FA17}"/>
   </bookViews>
   <sheets>
     <sheet name="Login_data" sheetId="1" r:id="rId1"/>
     <sheet name="Add_coach_details" sheetId="2" r:id="rId2"/>
-    <sheet name="Login_testCase_result" sheetId="3" r:id="rId3"/>
+    <sheet name="Delete_Coach" sheetId="4" r:id="rId3"/>
+    <sheet name="Login_testCase_result" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:R24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>User name</t>
   </si>
@@ -99,6 +96,12 @@
   </si>
   <si>
     <t>D:\StrongaMe\images\Decline Bench press.jpg</t>
+  </si>
+  <si>
+    <t>Badge</t>
+  </si>
+  <si>
+    <t>Gold</t>
   </si>
 </sst>
 </file>
@@ -164,13 +167,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -488,18 +492,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC7E906-A1CD-4946-BE6A-6C5658D10D6B}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.90625" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -521,7 +525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -532,7 +536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -543,12 +547,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -561,25 +565,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E785EC1-A809-4DAE-8981-1F12A7BE6280}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" customWidth="1"/>
-    <col min="2" max="2" width="56.26953125" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="20.453125" customWidth="1"/>
-    <col min="6" max="6" width="16.6328125" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" customWidth="1"/>
-    <col min="8" max="8" width="17.26953125" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="56.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
@@ -596,16 +601,19 @@
         <v>13</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -621,13 +629,16 @@
       <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
-        <v>18</v>
+      <c r="F2" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
       </c>
       <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -636,10 +647,39 @@
     <hyperlink ref="E2" r:id="rId1" xr:uid="{D936BA14-AACF-4527-AC2D-D04A70642D0E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F99B22-7D7F-477F-A221-ACCA3EA2482A}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D713FEA-D305-4BA9-AD33-2D085C1CFA47}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -647,7 +687,7 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
